--- a/database/food_database.xlsx
+++ b/database/food_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanat\OneDrive\Desktop\PEA_Inovation\DEV2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanat\OneDrive\Desktop\PEA_Inovation\DEV2025\nextjs-fullstack-deploy\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD78FD-4EF5-4A34-8EF3-DC80A90738C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25529784-BA3C-4836-AE9A-8797F89F5E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>ข้าวผัดหมู</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>https://api2.krua.co/wp-content/uploads/2022/03/RT1708_ImageBanner_1140x507.jpg</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -737,386 +740,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>101</v>
       </c>
     </row>
